--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudyCode\functionalconnectivity_sfcc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\StudyCode\functionalconnectivity_sfcc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82684FAC-D092-4E77-B4AC-1BBA26F4BCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD3714F-BDEE-45C5-9109-C795AFE88701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2025" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,11 +65,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -77,6 +77,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,7 +128,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -425,9 +432,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -455,7 +462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -469,7 +476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -484,6 +491,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>